--- a/Defocus/Beam4_Rayfile_121_1000nm_m00_m00.xlsx
+++ b/Defocus/Beam4_Rayfile_121_1000nm_m00_m00.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>X0</t>
   </si>
@@ -35,6 +35,21 @@
   </si>
   <si>
     <t>wave</t>
+  </si>
+  <si>
+    <t>Xgoal</t>
+  </si>
+  <si>
+    <t>Ygoal</t>
+  </si>
+  <si>
+    <t>Xfinal</t>
+  </si>
+  <si>
+    <t>Yfinal</t>
+  </si>
+  <si>
+    <t>Zfinal</t>
   </si>
 </sst>
 </file>
@@ -392,13 +407,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G122"/>
+  <dimension ref="A1:L122"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -420,8 +435,23 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2">
         <v>-2.913785</v>
       </c>
@@ -443,8 +473,23 @@
       <c r="G2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3">
         <v>-2.331028</v>
       </c>
@@ -466,8 +511,23 @@
       <c r="G3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4">
         <v>-1.748271</v>
       </c>
@@ -489,8 +549,23 @@
       <c r="G4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5">
         <v>-1.165514</v>
       </c>
@@ -512,8 +587,23 @@
       <c r="G5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6">
         <v>-0.582757</v>
       </c>
@@ -535,8 +625,23 @@
       <c r="G6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7">
         <v>0</v>
       </c>
@@ -558,8 +663,23 @@
       <c r="G7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8">
         <v>0.582757</v>
       </c>
@@ -581,8 +701,23 @@
       <c r="G8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9">
         <v>1.165514</v>
       </c>
@@ -604,8 +739,23 @@
       <c r="G9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10">
         <v>1.748271</v>
       </c>
@@ -627,8 +777,23 @@
       <c r="G10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11">
         <v>2.331028</v>
       </c>
@@ -650,8 +815,23 @@
       <c r="G11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12">
         <v>2.913785</v>
       </c>
@@ -673,8 +853,23 @@
       <c r="G12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13">
         <v>-2.913785</v>
       </c>
@@ -696,8 +891,23 @@
       <c r="G13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14">
         <v>-2.331028</v>
       </c>
@@ -719,8 +929,23 @@
       <c r="G14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15">
         <v>-1.748271</v>
       </c>
@@ -742,8 +967,23 @@
       <c r="G15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16">
         <v>-1.165514</v>
       </c>
@@ -765,8 +1005,23 @@
       <c r="G16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17">
         <v>-0.582757</v>
       </c>
@@ -788,8 +1043,23 @@
       <c r="G17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18">
         <v>0</v>
       </c>
@@ -811,8 +1081,23 @@
       <c r="G18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19">
         <v>0.582757</v>
       </c>
@@ -834,8 +1119,23 @@
       <c r="G19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20">
         <v>1.165514</v>
       </c>
@@ -857,8 +1157,23 @@
       <c r="G20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21">
         <v>1.748271</v>
       </c>
@@ -880,8 +1195,23 @@
       <c r="G21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22">
         <v>2.331028</v>
       </c>
@@ -903,8 +1233,23 @@
       <c r="G22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23">
         <v>2.913785</v>
       </c>
@@ -926,8 +1271,23 @@
       <c r="G23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24">
         <v>-2.913785</v>
       </c>
@@ -949,8 +1309,23 @@
       <c r="G24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25">
         <v>-2.331028</v>
       </c>
@@ -972,8 +1347,23 @@
       <c r="G25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26">
         <v>-1.748271</v>
       </c>
@@ -995,8 +1385,23 @@
       <c r="G26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:7">
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27">
         <v>-1.165514</v>
       </c>
@@ -1018,8 +1423,23 @@
       <c r="G27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28">
         <v>-0.582757</v>
       </c>
@@ -1041,8 +1461,23 @@
       <c r="G28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:7">
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29">
         <v>0</v>
       </c>
@@ -1064,8 +1499,23 @@
       <c r="G29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:7">
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30">
         <v>0.582757</v>
       </c>
@@ -1087,8 +1537,23 @@
       <c r="G30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:7">
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31">
         <v>1.165514</v>
       </c>
@@ -1110,8 +1575,23 @@
       <c r="G31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:7">
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
       <c r="A32">
         <v>1.748271</v>
       </c>
@@ -1133,8 +1613,23 @@
       <c r="G32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:7">
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
       <c r="A33">
         <v>2.331028</v>
       </c>
@@ -1156,8 +1651,23 @@
       <c r="G33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:7">
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
       <c r="A34">
         <v>2.913785</v>
       </c>
@@ -1179,8 +1689,23 @@
       <c r="G34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:7">
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
       <c r="A35">
         <v>-2.913785</v>
       </c>
@@ -1202,8 +1727,23 @@
       <c r="G35">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
       <c r="A36">
         <v>-2.331028</v>
       </c>
@@ -1225,8 +1765,23 @@
       <c r="G36">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:7">
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
       <c r="A37">
         <v>-1.748271</v>
       </c>
@@ -1248,8 +1803,23 @@
       <c r="G37">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
       <c r="A38">
         <v>-1.165514</v>
       </c>
@@ -1271,8 +1841,23 @@
       <c r="G38">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:7">
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
       <c r="A39">
         <v>-0.582757</v>
       </c>
@@ -1294,8 +1879,23 @@
       <c r="G39">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:7">
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
       <c r="A40">
         <v>0</v>
       </c>
@@ -1317,8 +1917,23 @@
       <c r="G40">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:7">
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
       <c r="A41">
         <v>0.582757</v>
       </c>
@@ -1340,8 +1955,23 @@
       <c r="G41">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:7">
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
       <c r="A42">
         <v>1.165514</v>
       </c>
@@ -1363,8 +1993,23 @@
       <c r="G42">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:7">
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
       <c r="A43">
         <v>1.748271</v>
       </c>
@@ -1386,8 +2031,23 @@
       <c r="G43">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:7">
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
       <c r="A44">
         <v>2.331028</v>
       </c>
@@ -1409,8 +2069,23 @@
       <c r="G44">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:7">
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
       <c r="A45">
         <v>2.913785</v>
       </c>
@@ -1432,8 +2107,23 @@
       <c r="G45">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
       <c r="A46">
         <v>-2.913785</v>
       </c>
@@ -1455,8 +2145,23 @@
       <c r="G46">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:7">
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
       <c r="A47">
         <v>-2.331028</v>
       </c>
@@ -1478,8 +2183,23 @@
       <c r="G47">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:7">
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
       <c r="A48">
         <v>-1.748271</v>
       </c>
@@ -1501,8 +2221,23 @@
       <c r="G48">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:7">
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
       <c r="A49">
         <v>-1.165514</v>
       </c>
@@ -1524,8 +2259,23 @@
       <c r="G49">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
       <c r="A50">
         <v>-0.582757</v>
       </c>
@@ -1547,8 +2297,23 @@
       <c r="G50">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:7">
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
       <c r="A51">
         <v>0</v>
       </c>
@@ -1570,8 +2335,23 @@
       <c r="G51">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:7">
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
       <c r="A52">
         <v>0.582757</v>
       </c>
@@ -1593,8 +2373,23 @@
       <c r="G52">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
       <c r="A53">
         <v>1.165514</v>
       </c>
@@ -1616,8 +2411,23 @@
       <c r="G53">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:7">
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
       <c r="A54">
         <v>1.748271</v>
       </c>
@@ -1639,8 +2449,23 @@
       <c r="G54">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:7">
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
       <c r="A55">
         <v>2.331028</v>
       </c>
@@ -1662,8 +2487,23 @@
       <c r="G55">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:7">
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
       <c r="A56">
         <v>2.913785</v>
       </c>
@@ -1685,8 +2525,23 @@
       <c r="G56">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:7">
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
       <c r="A57">
         <v>-2.913785</v>
       </c>
@@ -1708,8 +2563,23 @@
       <c r="G57">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:7">
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
       <c r="A58">
         <v>-2.331028</v>
       </c>
@@ -1731,8 +2601,23 @@
       <c r="G58">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:7">
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
       <c r="A59">
         <v>-1.748271</v>
       </c>
@@ -1754,8 +2639,23 @@
       <c r="G59">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:7">
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
       <c r="A60">
         <v>-1.165514</v>
       </c>
@@ -1777,8 +2677,23 @@
       <c r="G60">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:7">
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
       <c r="A61">
         <v>-0.582757</v>
       </c>
@@ -1800,8 +2715,23 @@
       <c r="G61">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:7">
+      <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
       <c r="A62">
         <v>0</v>
       </c>
@@ -1823,8 +2753,23 @@
       <c r="G62">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
       <c r="A63">
         <v>0.582757</v>
       </c>
@@ -1846,8 +2791,23 @@
       <c r="G63">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:7">
+      <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
       <c r="A64">
         <v>1.165514</v>
       </c>
@@ -1869,8 +2829,23 @@
       <c r="G64">
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="1:7">
+      <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
       <c r="A65">
         <v>1.748271</v>
       </c>
@@ -1892,8 +2867,23 @@
       <c r="G65">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:7">
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12">
       <c r="A66">
         <v>2.331028</v>
       </c>
@@ -1915,8 +2905,23 @@
       <c r="G66">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:7">
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12">
       <c r="A67">
         <v>2.913785</v>
       </c>
@@ -1938,8 +2943,23 @@
       <c r="G67">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="1:7">
+      <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12">
       <c r="A68">
         <v>-2.913785</v>
       </c>
@@ -1961,8 +2981,23 @@
       <c r="G68">
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="1:7">
+      <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12">
       <c r="A69">
         <v>-2.331028</v>
       </c>
@@ -1984,8 +3019,23 @@
       <c r="G69">
         <v>1</v>
       </c>
-    </row>
-    <row r="70" spans="1:7">
+      <c r="H69">
+        <v>0</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12">
       <c r="A70">
         <v>-1.748271</v>
       </c>
@@ -2007,8 +3057,23 @@
       <c r="G70">
         <v>1</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12">
       <c r="A71">
         <v>-1.165514</v>
       </c>
@@ -2030,8 +3095,23 @@
       <c r="G71">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="1:7">
+      <c r="H71">
+        <v>0</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12">
       <c r="A72">
         <v>-0.582757</v>
       </c>
@@ -2053,8 +3133,23 @@
       <c r="G72">
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="1:7">
+      <c r="H72">
+        <v>0</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12">
       <c r="A73">
         <v>0</v>
       </c>
@@ -2076,8 +3171,23 @@
       <c r="G73">
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="1:7">
+      <c r="H73">
+        <v>0</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12">
       <c r="A74">
         <v>0.582757</v>
       </c>
@@ -2099,8 +3209,23 @@
       <c r="G74">
         <v>1</v>
       </c>
-    </row>
-    <row r="75" spans="1:7">
+      <c r="H74">
+        <v>0</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12">
       <c r="A75">
         <v>1.165514</v>
       </c>
@@ -2122,8 +3247,23 @@
       <c r="G75">
         <v>1</v>
       </c>
-    </row>
-    <row r="76" spans="1:7">
+      <c r="H75">
+        <v>0</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12">
       <c r="A76">
         <v>1.748271</v>
       </c>
@@ -2145,8 +3285,23 @@
       <c r="G76">
         <v>1</v>
       </c>
-    </row>
-    <row r="77" spans="1:7">
+      <c r="H76">
+        <v>0</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12">
       <c r="A77">
         <v>2.331028</v>
       </c>
@@ -2168,8 +3323,23 @@
       <c r="G77">
         <v>1</v>
       </c>
-    </row>
-    <row r="78" spans="1:7">
+      <c r="H77">
+        <v>0</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12">
       <c r="A78">
         <v>2.913785</v>
       </c>
@@ -2191,8 +3361,23 @@
       <c r="G78">
         <v>1</v>
       </c>
-    </row>
-    <row r="79" spans="1:7">
+      <c r="H78">
+        <v>0</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12">
       <c r="A79">
         <v>-2.913785</v>
       </c>
@@ -2214,8 +3399,23 @@
       <c r="G79">
         <v>1</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12">
       <c r="A80">
         <v>-2.331028</v>
       </c>
@@ -2237,8 +3437,23 @@
       <c r="G80">
         <v>1</v>
       </c>
-    </row>
-    <row r="81" spans="1:7">
+      <c r="H80">
+        <v>0</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12">
       <c r="A81">
         <v>-1.748271</v>
       </c>
@@ -2260,8 +3475,23 @@
       <c r="G81">
         <v>1</v>
       </c>
-    </row>
-    <row r="82" spans="1:7">
+      <c r="H81">
+        <v>0</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12">
       <c r="A82">
         <v>-1.165514</v>
       </c>
@@ -2283,8 +3513,23 @@
       <c r="G82">
         <v>1</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12">
       <c r="A83">
         <v>-0.582757</v>
       </c>
@@ -2306,8 +3551,23 @@
       <c r="G83">
         <v>1</v>
       </c>
-    </row>
-    <row r="84" spans="1:7">
+      <c r="H83">
+        <v>0</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+      <c r="K83">
+        <v>0</v>
+      </c>
+      <c r="L83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12">
       <c r="A84">
         <v>0</v>
       </c>
@@ -2329,8 +3589,23 @@
       <c r="G84">
         <v>1</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+      <c r="K84">
+        <v>0</v>
+      </c>
+      <c r="L84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12">
       <c r="A85">
         <v>0.582757</v>
       </c>
@@ -2352,8 +3627,23 @@
       <c r="G85">
         <v>1</v>
       </c>
-    </row>
-    <row r="86" spans="1:7">
+      <c r="H85">
+        <v>0</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>0</v>
+      </c>
+      <c r="K85">
+        <v>0</v>
+      </c>
+      <c r="L85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12">
       <c r="A86">
         <v>1.165514</v>
       </c>
@@ -2375,8 +3665,23 @@
       <c r="G86">
         <v>1</v>
       </c>
-    </row>
-    <row r="87" spans="1:7">
+      <c r="H86">
+        <v>0</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>0</v>
+      </c>
+      <c r="K86">
+        <v>0</v>
+      </c>
+      <c r="L86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12">
       <c r="A87">
         <v>1.748271</v>
       </c>
@@ -2398,8 +3703,23 @@
       <c r="G87">
         <v>1</v>
       </c>
-    </row>
-    <row r="88" spans="1:7">
+      <c r="H87">
+        <v>0</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>0</v>
+      </c>
+      <c r="K87">
+        <v>0</v>
+      </c>
+      <c r="L87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12">
       <c r="A88">
         <v>2.331028</v>
       </c>
@@ -2421,8 +3741,23 @@
       <c r="G88">
         <v>1</v>
       </c>
-    </row>
-    <row r="89" spans="1:7">
+      <c r="H88">
+        <v>0</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>0</v>
+      </c>
+      <c r="K88">
+        <v>0</v>
+      </c>
+      <c r="L88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12">
       <c r="A89">
         <v>2.913785</v>
       </c>
@@ -2444,8 +3779,23 @@
       <c r="G89">
         <v>1</v>
       </c>
-    </row>
-    <row r="90" spans="1:7">
+      <c r="H89">
+        <v>0</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>0</v>
+      </c>
+      <c r="K89">
+        <v>0</v>
+      </c>
+      <c r="L89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12">
       <c r="A90">
         <v>-2.913785</v>
       </c>
@@ -2467,8 +3817,23 @@
       <c r="G90">
         <v>1</v>
       </c>
-    </row>
-    <row r="91" spans="1:7">
+      <c r="H90">
+        <v>0</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>0</v>
+      </c>
+      <c r="K90">
+        <v>0</v>
+      </c>
+      <c r="L90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12">
       <c r="A91">
         <v>-2.331028</v>
       </c>
@@ -2490,8 +3855,23 @@
       <c r="G91">
         <v>1</v>
       </c>
-    </row>
-    <row r="92" spans="1:7">
+      <c r="H91">
+        <v>0</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>0</v>
+      </c>
+      <c r="K91">
+        <v>0</v>
+      </c>
+      <c r="L91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12">
       <c r="A92">
         <v>-1.748271</v>
       </c>
@@ -2513,8 +3893,23 @@
       <c r="G92">
         <v>1</v>
       </c>
-    </row>
-    <row r="93" spans="1:7">
+      <c r="H92">
+        <v>0</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>0</v>
+      </c>
+      <c r="K92">
+        <v>0</v>
+      </c>
+      <c r="L92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12">
       <c r="A93">
         <v>-1.165514</v>
       </c>
@@ -2536,8 +3931,23 @@
       <c r="G93">
         <v>1</v>
       </c>
-    </row>
-    <row r="94" spans="1:7">
+      <c r="H93">
+        <v>0</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>0</v>
+      </c>
+      <c r="K93">
+        <v>0</v>
+      </c>
+      <c r="L93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12">
       <c r="A94">
         <v>-0.582757</v>
       </c>
@@ -2559,8 +3969,23 @@
       <c r="G94">
         <v>1</v>
       </c>
-    </row>
-    <row r="95" spans="1:7">
+      <c r="H94">
+        <v>0</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>0</v>
+      </c>
+      <c r="K94">
+        <v>0</v>
+      </c>
+      <c r="L94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12">
       <c r="A95">
         <v>0</v>
       </c>
@@ -2582,8 +4007,23 @@
       <c r="G95">
         <v>1</v>
       </c>
-    </row>
-    <row r="96" spans="1:7">
+      <c r="H95">
+        <v>0</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>0</v>
+      </c>
+      <c r="K95">
+        <v>0</v>
+      </c>
+      <c r="L95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12">
       <c r="A96">
         <v>0.582757</v>
       </c>
@@ -2605,8 +4045,23 @@
       <c r="G96">
         <v>1</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+      <c r="L96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12">
       <c r="A97">
         <v>1.165514</v>
       </c>
@@ -2628,8 +4083,23 @@
       <c r="G97">
         <v>1</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+      <c r="K97">
+        <v>0</v>
+      </c>
+      <c r="L97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12">
       <c r="A98">
         <v>1.748271</v>
       </c>
@@ -2651,8 +4121,23 @@
       <c r="G98">
         <v>1</v>
       </c>
-    </row>
-    <row r="99" spans="1:7">
+      <c r="H98">
+        <v>0</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>0</v>
+      </c>
+      <c r="K98">
+        <v>0</v>
+      </c>
+      <c r="L98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12">
       <c r="A99">
         <v>2.331028</v>
       </c>
@@ -2674,8 +4159,23 @@
       <c r="G99">
         <v>1</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+      <c r="K99">
+        <v>0</v>
+      </c>
+      <c r="L99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12">
       <c r="A100">
         <v>2.913785</v>
       </c>
@@ -2697,8 +4197,23 @@
       <c r="G100">
         <v>1</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+      <c r="L100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12">
       <c r="A101">
         <v>-2.913785</v>
       </c>
@@ -2720,8 +4235,23 @@
       <c r="G101">
         <v>1</v>
       </c>
-    </row>
-    <row r="102" spans="1:7">
+      <c r="H101">
+        <v>0</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>0</v>
+      </c>
+      <c r="K101">
+        <v>0</v>
+      </c>
+      <c r="L101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12">
       <c r="A102">
         <v>-2.331028</v>
       </c>
@@ -2743,8 +4273,23 @@
       <c r="G102">
         <v>1</v>
       </c>
-    </row>
-    <row r="103" spans="1:7">
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+      <c r="L102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12">
       <c r="A103">
         <v>-1.748271</v>
       </c>
@@ -2766,8 +4311,23 @@
       <c r="G103">
         <v>1</v>
       </c>
-    </row>
-    <row r="104" spans="1:7">
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12">
       <c r="A104">
         <v>-1.165514</v>
       </c>
@@ -2789,8 +4349,23 @@
       <c r="G104">
         <v>1</v>
       </c>
-    </row>
-    <row r="105" spans="1:7">
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
+      <c r="L104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12">
       <c r="A105">
         <v>-0.582757</v>
       </c>
@@ -2812,8 +4387,23 @@
       <c r="G105">
         <v>1</v>
       </c>
-    </row>
-    <row r="106" spans="1:7">
+      <c r="H105">
+        <v>0</v>
+      </c>
+      <c r="I105">
+        <v>0</v>
+      </c>
+      <c r="J105">
+        <v>0</v>
+      </c>
+      <c r="K105">
+        <v>0</v>
+      </c>
+      <c r="L105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12">
       <c r="A106">
         <v>0</v>
       </c>
@@ -2835,8 +4425,23 @@
       <c r="G106">
         <v>1</v>
       </c>
-    </row>
-    <row r="107" spans="1:7">
+      <c r="H106">
+        <v>0</v>
+      </c>
+      <c r="I106">
+        <v>0</v>
+      </c>
+      <c r="J106">
+        <v>0</v>
+      </c>
+      <c r="K106">
+        <v>0</v>
+      </c>
+      <c r="L106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12">
       <c r="A107">
         <v>0.582757</v>
       </c>
@@ -2858,8 +4463,23 @@
       <c r="G107">
         <v>1</v>
       </c>
-    </row>
-    <row r="108" spans="1:7">
+      <c r="H107">
+        <v>0</v>
+      </c>
+      <c r="I107">
+        <v>0</v>
+      </c>
+      <c r="J107">
+        <v>0</v>
+      </c>
+      <c r="K107">
+        <v>0</v>
+      </c>
+      <c r="L107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12">
       <c r="A108">
         <v>1.165514</v>
       </c>
@@ -2881,8 +4501,23 @@
       <c r="G108">
         <v>1</v>
       </c>
-    </row>
-    <row r="109" spans="1:7">
+      <c r="H108">
+        <v>0</v>
+      </c>
+      <c r="I108">
+        <v>0</v>
+      </c>
+      <c r="J108">
+        <v>0</v>
+      </c>
+      <c r="K108">
+        <v>0</v>
+      </c>
+      <c r="L108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12">
       <c r="A109">
         <v>1.748271</v>
       </c>
@@ -2904,8 +4539,23 @@
       <c r="G109">
         <v>1</v>
       </c>
-    </row>
-    <row r="110" spans="1:7">
+      <c r="H109">
+        <v>0</v>
+      </c>
+      <c r="I109">
+        <v>0</v>
+      </c>
+      <c r="J109">
+        <v>0</v>
+      </c>
+      <c r="K109">
+        <v>0</v>
+      </c>
+      <c r="L109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12">
       <c r="A110">
         <v>2.331028</v>
       </c>
@@ -2927,8 +4577,23 @@
       <c r="G110">
         <v>1</v>
       </c>
-    </row>
-    <row r="111" spans="1:7">
+      <c r="H110">
+        <v>0</v>
+      </c>
+      <c r="I110">
+        <v>0</v>
+      </c>
+      <c r="J110">
+        <v>0</v>
+      </c>
+      <c r="K110">
+        <v>0</v>
+      </c>
+      <c r="L110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12">
       <c r="A111">
         <v>2.913785</v>
       </c>
@@ -2950,8 +4615,23 @@
       <c r="G111">
         <v>1</v>
       </c>
-    </row>
-    <row r="112" spans="1:7">
+      <c r="H111">
+        <v>0</v>
+      </c>
+      <c r="I111">
+        <v>0</v>
+      </c>
+      <c r="J111">
+        <v>0</v>
+      </c>
+      <c r="K111">
+        <v>0</v>
+      </c>
+      <c r="L111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12">
       <c r="A112">
         <v>-2.913785</v>
       </c>
@@ -2973,8 +4653,23 @@
       <c r="G112">
         <v>1</v>
       </c>
-    </row>
-    <row r="113" spans="1:7">
+      <c r="H112">
+        <v>0</v>
+      </c>
+      <c r="I112">
+        <v>0</v>
+      </c>
+      <c r="J112">
+        <v>0</v>
+      </c>
+      <c r="K112">
+        <v>0</v>
+      </c>
+      <c r="L112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12">
       <c r="A113">
         <v>-2.331028</v>
       </c>
@@ -2996,8 +4691,23 @@
       <c r="G113">
         <v>1</v>
       </c>
-    </row>
-    <row r="114" spans="1:7">
+      <c r="H113">
+        <v>0</v>
+      </c>
+      <c r="I113">
+        <v>0</v>
+      </c>
+      <c r="J113">
+        <v>0</v>
+      </c>
+      <c r="K113">
+        <v>0</v>
+      </c>
+      <c r="L113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12">
       <c r="A114">
         <v>-1.748271</v>
       </c>
@@ -3019,8 +4729,23 @@
       <c r="G114">
         <v>1</v>
       </c>
-    </row>
-    <row r="115" spans="1:7">
+      <c r="H114">
+        <v>0</v>
+      </c>
+      <c r="I114">
+        <v>0</v>
+      </c>
+      <c r="J114">
+        <v>0</v>
+      </c>
+      <c r="K114">
+        <v>0</v>
+      </c>
+      <c r="L114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12">
       <c r="A115">
         <v>-1.165514</v>
       </c>
@@ -3042,8 +4767,23 @@
       <c r="G115">
         <v>1</v>
       </c>
-    </row>
-    <row r="116" spans="1:7">
+      <c r="H115">
+        <v>0</v>
+      </c>
+      <c r="I115">
+        <v>0</v>
+      </c>
+      <c r="J115">
+        <v>0</v>
+      </c>
+      <c r="K115">
+        <v>0</v>
+      </c>
+      <c r="L115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12">
       <c r="A116">
         <v>-0.582757</v>
       </c>
@@ -3065,8 +4805,23 @@
       <c r="G116">
         <v>1</v>
       </c>
-    </row>
-    <row r="117" spans="1:7">
+      <c r="H116">
+        <v>0</v>
+      </c>
+      <c r="I116">
+        <v>0</v>
+      </c>
+      <c r="J116">
+        <v>0</v>
+      </c>
+      <c r="K116">
+        <v>0</v>
+      </c>
+      <c r="L116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12">
       <c r="A117">
         <v>0</v>
       </c>
@@ -3088,8 +4843,23 @@
       <c r="G117">
         <v>1</v>
       </c>
-    </row>
-    <row r="118" spans="1:7">
+      <c r="H117">
+        <v>0</v>
+      </c>
+      <c r="I117">
+        <v>0</v>
+      </c>
+      <c r="J117">
+        <v>0</v>
+      </c>
+      <c r="K117">
+        <v>0</v>
+      </c>
+      <c r="L117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12">
       <c r="A118">
         <v>0.582757</v>
       </c>
@@ -3111,8 +4881,23 @@
       <c r="G118">
         <v>1</v>
       </c>
-    </row>
-    <row r="119" spans="1:7">
+      <c r="H118">
+        <v>0</v>
+      </c>
+      <c r="I118">
+        <v>0</v>
+      </c>
+      <c r="J118">
+        <v>0</v>
+      </c>
+      <c r="K118">
+        <v>0</v>
+      </c>
+      <c r="L118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12">
       <c r="A119">
         <v>1.165514</v>
       </c>
@@ -3134,8 +4919,23 @@
       <c r="G119">
         <v>1</v>
       </c>
-    </row>
-    <row r="120" spans="1:7">
+      <c r="H119">
+        <v>0</v>
+      </c>
+      <c r="I119">
+        <v>0</v>
+      </c>
+      <c r="J119">
+        <v>0</v>
+      </c>
+      <c r="K119">
+        <v>0</v>
+      </c>
+      <c r="L119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12">
       <c r="A120">
         <v>1.748271</v>
       </c>
@@ -3157,8 +4957,23 @@
       <c r="G120">
         <v>1</v>
       </c>
-    </row>
-    <row r="121" spans="1:7">
+      <c r="H120">
+        <v>0</v>
+      </c>
+      <c r="I120">
+        <v>0</v>
+      </c>
+      <c r="J120">
+        <v>0</v>
+      </c>
+      <c r="K120">
+        <v>0</v>
+      </c>
+      <c r="L120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12">
       <c r="A121">
         <v>2.331028</v>
       </c>
@@ -3180,8 +4995,23 @@
       <c r="G121">
         <v>1</v>
       </c>
-    </row>
-    <row r="122" spans="1:7">
+      <c r="H121">
+        <v>0</v>
+      </c>
+      <c r="I121">
+        <v>0</v>
+      </c>
+      <c r="J121">
+        <v>0</v>
+      </c>
+      <c r="K121">
+        <v>0</v>
+      </c>
+      <c r="L121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12">
       <c r="A122">
         <v>2.913785</v>
       </c>
@@ -3202,6 +5032,21 @@
       </c>
       <c r="G122">
         <v>1</v>
+      </c>
+      <c r="H122">
+        <v>0</v>
+      </c>
+      <c r="I122">
+        <v>0</v>
+      </c>
+      <c r="J122">
+        <v>0</v>
+      </c>
+      <c r="K122">
+        <v>0</v>
+      </c>
+      <c r="L122">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
